--- a/team_specific_matrix/ULM_B.xlsx
+++ b/team_specific_matrix/ULM_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2084942084942085</v>
+        <v>0.2084690553745928</v>
       </c>
       <c r="C2">
-        <v>0.5675675675675675</v>
+        <v>0.5602605863192183</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0193050193050193</v>
+        <v>0.01954397394136808</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1505791505791506</v>
+        <v>0.1498371335504886</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05405405405405406</v>
+        <v>0.06188925081433225</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01290322580645161</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="C3">
-        <v>0.03870967741935484</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02580645161290323</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7483870967741936</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1741935483870968</v>
+        <v>0.1758241758241758</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03125</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.71875</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2790697674418605</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0893854748603352</v>
+        <v>0.0947867298578199</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0223463687150838</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="E6">
-        <v>0.00558659217877095</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="F6">
-        <v>0.03910614525139665</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2458100558659218</v>
+        <v>0.2511848341232227</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0446927374301676</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1284916201117318</v>
+        <v>0.1184834123222749</v>
       </c>
       <c r="R6">
-        <v>0.08379888268156424</v>
+        <v>0.08056872037914692</v>
       </c>
       <c r="S6">
-        <v>0.3407821229050279</v>
+        <v>0.3459715639810427</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09302325581395349</v>
+        <v>0.09375</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01162790697674419</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="E7">
-        <v>0.005813953488372093</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="F7">
-        <v>0.04651162790697674</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1627906976744186</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01162790697674419</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1686046511627907</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R7">
-        <v>0.1046511627906977</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="S7">
-        <v>0.3953488372093023</v>
+        <v>0.4010416666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08374384236453201</v>
+        <v>0.0815450643776824</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01477832512315271</v>
+        <v>0.02145922746781116</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05911330049261083</v>
+        <v>0.06437768240343347</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08374384236453201</v>
+        <v>0.09442060085836911</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01477832512315271</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1527093596059113</v>
+        <v>0.1502145922746781</v>
       </c>
       <c r="R8">
-        <v>0.1280788177339902</v>
+        <v>0.1266094420600858</v>
       </c>
       <c r="S8">
-        <v>0.4630541871921182</v>
+        <v>0.444206008583691</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09803921568627451</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0196078431372549</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.107843137254902</v>
+        <v>0.1138211382113821</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1274509803921569</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.08823529411764706</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="R9">
-        <v>0.1176470588235294</v>
+        <v>0.1138211382113821</v>
       </c>
       <c r="S9">
-        <v>0.4411764705882353</v>
+        <v>0.4390243902439024</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1258671952428147</v>
+        <v>0.1245901639344262</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01883052527254708</v>
+        <v>0.02131147540983606</v>
       </c>
       <c r="E10">
-        <v>0.002973240832507433</v>
+        <v>0.003278688524590164</v>
       </c>
       <c r="F10">
-        <v>0.07333994053518335</v>
+        <v>0.07213114754098361</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1219028741328048</v>
+        <v>0.1229508196721311</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01982160555004955</v>
+        <v>0.0180327868852459</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1744301288404361</v>
+        <v>0.169672131147541</v>
       </c>
       <c r="R10">
-        <v>0.1020812685827552</v>
+        <v>0.1008196721311475</v>
       </c>
       <c r="S10">
-        <v>0.3607532210109019</v>
+        <v>0.3672131147540983</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1447811447811448</v>
+        <v>0.1412103746397695</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.101010101010101</v>
+        <v>0.1123919308357349</v>
       </c>
       <c r="K11">
-        <v>0.2154882154882155</v>
+        <v>0.2161383285302594</v>
       </c>
       <c r="L11">
-        <v>0.5050505050505051</v>
+        <v>0.4985590778097982</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03367003367003367</v>
+        <v>0.03170028818443804</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.006535947712418301</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="G12">
-        <v>0.6601307189542484</v>
+        <v>0.6534090909090909</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2352941176470588</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
-        <v>0.0196078431372549</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="L12">
-        <v>0.0261437908496732</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05228758169934641</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6904761904761905</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2380952380952381</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01169590643274854</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1812865497076023</v>
+        <v>0.1504854368932039</v>
       </c>
       <c r="I15">
-        <v>0.07017543859649122</v>
+        <v>0.0825242718446602</v>
       </c>
       <c r="J15">
-        <v>0.2690058479532164</v>
+        <v>0.2961165048543689</v>
       </c>
       <c r="K15">
-        <v>0.1286549707602339</v>
+        <v>0.1116504854368932</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01754385964912281</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07602339181286549</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2456140350877193</v>
+        <v>0.2572815533980582</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02777777777777778</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1944444444444444</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I16">
-        <v>0.04444444444444445</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="J16">
-        <v>0.4166666666666667</v>
+        <v>0.430622009569378</v>
       </c>
       <c r="K16">
-        <v>0.1111111111111111</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01666666666666667</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1333333333333333</v>
+        <v>0.1339712918660287</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01342281879194631</v>
+        <v>0.01445086705202312</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.174496644295302</v>
+        <v>0.1705202312138728</v>
       </c>
       <c r="I17">
-        <v>0.04697986577181208</v>
+        <v>0.05202312138728324</v>
       </c>
       <c r="J17">
-        <v>0.4026845637583892</v>
+        <v>0.4104046242774567</v>
       </c>
       <c r="K17">
-        <v>0.1140939597315436</v>
+        <v>0.1127167630057803</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01006711409395973</v>
+        <v>0.008670520231213872</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0738255033557047</v>
+        <v>0.07225433526011561</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1644295302013423</v>
+        <v>0.1589595375722543</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0101010101010101</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1868686868686869</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.0505050505050505</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="J18">
-        <v>0.4090909090909091</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="K18">
-        <v>0.1111111111111111</v>
+        <v>0.1130434782608696</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03535353535353535</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="N18">
-        <v>0.005050505050505051</v>
+        <v>0.004347826086956522</v>
       </c>
       <c r="O18">
-        <v>0.05555555555555555</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1363636363636364</v>
+        <v>0.1391304347826087</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01387604070305273</v>
+        <v>0.01252936570086139</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2358926919518964</v>
+        <v>0.2317932654659358</v>
       </c>
       <c r="I19">
-        <v>0.05365402405180388</v>
+        <v>0.05324980422866092</v>
       </c>
       <c r="J19">
-        <v>0.3469010175763182</v>
+        <v>0.355520751761942</v>
       </c>
       <c r="K19">
-        <v>0.120259019426457</v>
+        <v>0.1205951448707909</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02497687326549491</v>
+        <v>0.02192638997650744</v>
       </c>
       <c r="N19">
-        <v>0.002775208140610546</v>
+        <v>0.002349256068911512</v>
       </c>
       <c r="O19">
-        <v>0.0545790934320074</v>
+        <v>0.05951448707909162</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1470860314523589</v>
+        <v>0.1425215348472983</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/ULM_B.xlsx
+++ b/team_specific_matrix/ULM_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2084690553745928</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="C2">
-        <v>0.5602605863192183</v>
+        <v>0.5743440233236151</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01954397394136808</v>
+        <v>0.01749271137026239</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1498371335504886</v>
+        <v>0.1457725947521866</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06188925081433225</v>
+        <v>0.05830903790087463</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01648351648351648</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="C3">
-        <v>0.04395604395604396</v>
+        <v>0.03864734299516908</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03296703296703297</v>
+        <v>0.03381642512077294</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7307692307692307</v>
+        <v>0.7342995169082126</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1758241758241758</v>
+        <v>0.1739130434782609</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04651162790697674</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6744186046511628</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2790697674418605</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0947867298578199</v>
+        <v>0.09282700421940929</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01895734597156398</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="E6">
-        <v>0.004739336492890996</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="F6">
-        <v>0.04265402843601896</v>
+        <v>0.04219409282700422</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2511848341232227</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04265402843601896</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1184834123222749</v>
+        <v>0.1308016877637131</v>
       </c>
       <c r="R6">
-        <v>0.08056872037914692</v>
+        <v>0.08016877637130802</v>
       </c>
       <c r="S6">
-        <v>0.3459715639810427</v>
+        <v>0.3417721518987342</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09375</v>
+        <v>0.09049773755656108</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01041666666666667</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="E7">
-        <v>0.005208333333333333</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="F7">
-        <v>0.04166666666666666</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01041666666666667</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1666666666666667</v>
+        <v>0.1719457013574661</v>
       </c>
       <c r="R7">
-        <v>0.1041666666666667</v>
+        <v>0.09954751131221719</v>
       </c>
       <c r="S7">
-        <v>0.4010416666666667</v>
+        <v>0.3936651583710407</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0815450643776824</v>
+        <v>0.08349514563106795</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02145922746781116</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.001941747572815534</v>
       </c>
       <c r="F8">
-        <v>0.06437768240343347</v>
+        <v>0.06213592233009708</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09442060085836911</v>
+        <v>0.0912621359223301</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01716738197424893</v>
+        <v>0.01747572815533981</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1502145922746781</v>
+        <v>0.1592233009708738</v>
       </c>
       <c r="R8">
-        <v>0.1266094420600858</v>
+        <v>0.1281553398058252</v>
       </c>
       <c r="S8">
-        <v>0.444206008583691</v>
+        <v>0.4368932038834951</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0975609756097561</v>
+        <v>0.1021897810218978</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01626016260162602</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1138211382113821</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1219512195121951</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.0975609756097561</v>
+        <v>0.1021897810218978</v>
       </c>
       <c r="R9">
-        <v>0.1138211382113821</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="S9">
-        <v>0.4390243902439024</v>
+        <v>0.4306569343065693</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1245901639344262</v>
+        <v>0.1263001485884101</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02131147540983606</v>
+        <v>0.02005943536404161</v>
       </c>
       <c r="E10">
-        <v>0.003278688524590164</v>
+        <v>0.002971768202080238</v>
       </c>
       <c r="F10">
-        <v>0.07213114754098361</v>
+        <v>0.07355126300148589</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1229508196721311</v>
+        <v>0.1225854383358098</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0180327868852459</v>
+        <v>0.01783060921248143</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.169672131147541</v>
+        <v>0.1768202080237742</v>
       </c>
       <c r="R10">
-        <v>0.1008196721311475</v>
+        <v>0.09658246656760773</v>
       </c>
       <c r="S10">
-        <v>0.3672131147540983</v>
+        <v>0.363298662704309</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1412103746397695</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1123919308357349</v>
+        <v>0.103359173126615</v>
       </c>
       <c r="K11">
-        <v>0.2161383285302594</v>
+        <v>0.2248062015503876</v>
       </c>
       <c r="L11">
-        <v>0.4985590778097982</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03170028818443804</v>
+        <v>0.02842377260981912</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.005681818181818182</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="G12">
-        <v>0.6534090909090909</v>
+        <v>0.6770833333333334</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.25</v>
+        <v>0.234375</v>
       </c>
       <c r="K12">
-        <v>0.01704545454545454</v>
+        <v>0.015625</v>
       </c>
       <c r="L12">
-        <v>0.02840909090909091</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04545454545454546</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6875</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01941747572815534</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1504854368932039</v>
+        <v>0.148471615720524</v>
       </c>
       <c r="I15">
-        <v>0.0825242718446602</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="J15">
-        <v>0.2961165048543689</v>
+        <v>0.2969432314410481</v>
       </c>
       <c r="K15">
-        <v>0.1116504854368932</v>
+        <v>0.1048034934497817</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01941747572815534</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06310679611650485</v>
+        <v>0.0611353711790393</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2572815533980582</v>
+        <v>0.2794759825327511</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02392344497607655</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1818181818181818</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="I16">
-        <v>0.04784688995215311</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="J16">
-        <v>0.430622009569378</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="K16">
-        <v>0.1100478468899522</v>
+        <v>0.1068376068376068</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01913875598086124</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05263157894736842</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1339712918660287</v>
+        <v>0.141025641025641</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01445086705202312</v>
+        <v>0.01240694789081886</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1705202312138728</v>
+        <v>0.1662531017369727</v>
       </c>
       <c r="I17">
-        <v>0.05202312138728324</v>
+        <v>0.0620347394540943</v>
       </c>
       <c r="J17">
-        <v>0.4104046242774567</v>
+        <v>0.424317617866005</v>
       </c>
       <c r="K17">
-        <v>0.1127167630057803</v>
+        <v>0.109181141439206</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008670520231213872</v>
+        <v>0.007444168734491315</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07225433526011561</v>
+        <v>0.06699751861042183</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1589595375722543</v>
+        <v>0.1513647642679901</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.008695652173913044</v>
+        <v>0.012</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.196</v>
       </c>
       <c r="I18">
-        <v>0.04347826086956522</v>
+        <v>0.044</v>
       </c>
       <c r="J18">
-        <v>0.391304347826087</v>
+        <v>0.372</v>
       </c>
       <c r="K18">
-        <v>0.1130434782608696</v>
+        <v>0.128</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03043478260869565</v>
+        <v>0.028</v>
       </c>
       <c r="N18">
-        <v>0.004347826086956522</v>
+        <v>0.004</v>
       </c>
       <c r="O18">
-        <v>0.06956521739130435</v>
+        <v>0.064</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1391304347826087</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01252936570086139</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2317932654659358</v>
+        <v>0.2304964539007092</v>
       </c>
       <c r="I19">
-        <v>0.05324980422866092</v>
+        <v>0.0524822695035461</v>
       </c>
       <c r="J19">
-        <v>0.355520751761942</v>
+        <v>0.3574468085106383</v>
       </c>
       <c r="K19">
-        <v>0.1205951448707909</v>
+        <v>0.1198581560283688</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02192638997650744</v>
+        <v>0.02198581560283688</v>
       </c>
       <c r="N19">
-        <v>0.002349256068911512</v>
+        <v>0.002127659574468085</v>
       </c>
       <c r="O19">
-        <v>0.05951448707909162</v>
+        <v>0.05886524822695036</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1425215348472983</v>
+        <v>0.1439716312056738</v>
       </c>
     </row>
   </sheetData>
